--- a/Data/EC/NIT-8301263957.xlsx
+++ b/Data/EC/NIT-8301263957.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{945D3662-D571-42DD-A0FB-B939EC2B2C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BAB4A1-057C-4FAE-BBCB-483AD7D5185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B6D13B04-30EF-4E9A-8552-D1CB843586D5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B1369EC-B661-4A69-A6A0-6760A63293D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,118 +71,121 @@
     <t>DANIEL FELIPE VELASQUEZ AGUIRRE</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2209</t>
   </si>
   <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
     <t>1002468355</t>
   </si>
   <si>
     <t>ELKIN DAVID GUTIERREZ TAPIA</t>
   </si>
   <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
     <t>1001901931</t>
   </si>
   <si>
     <t>DIANIS CAROLINA CARRILLO RAMIREZ</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -596,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626CE550-2C50-F5A0-A2E7-2CF18F8E1E79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B824D5C-7376-E7F5-1127-F323FBA64C4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC22F8-81A6-4B84-813A-951EB890D638}">
-  <dimension ref="B2:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F452FAF-0243-4ADE-BE3A-1665FD1A7783}">
+  <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -972,7 +975,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1017,7 +1020,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1049,12 +1052,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4549720</v>
+        <v>4677720</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1065,17 +1068,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1102,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1484,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F32" s="18">
-        <v>68654</v>
+        <v>128000</v>
       </c>
       <c r="G32" s="18">
-        <v>2451930</v>
+        <v>3200000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1513,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>128000</v>
@@ -1536,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>128000</v>
@@ -1559,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>128000</v>
@@ -1582,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>128000</v>
@@ -1605,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>128000</v>
@@ -1628,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>128000</v>
@@ -1651,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>128000</v>
@@ -1674,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>128000</v>
@@ -1697,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>128000</v>
@@ -1720,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>128000</v>
@@ -1743,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>128000</v>
@@ -1766,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>128000</v>
@@ -1789,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>128000</v>
@@ -1812,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>128000</v>
@@ -1829,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>41066</v>
+        <v>128000</v>
       </c>
       <c r="G47" s="18">
-        <v>2200000</v>
+        <v>3200000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1852,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F48" s="18">
-        <v>88000</v>
+        <v>128000</v>
       </c>
       <c r="G48" s="18">
-        <v>2200000</v>
+        <v>3200000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1881,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>128000</v>
@@ -1904,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>128000</v>
@@ -1921,61 +1924,73 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F51" s="18">
-        <v>128000</v>
+        <v>68654</v>
       </c>
       <c r="G51" s="18">
-        <v>3200000</v>
+        <v>2451930</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="22" t="s">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="24">
-        <v>128000</v>
-      </c>
-      <c r="G52" s="24">
-        <v>3200000</v>
-      </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="H57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="D52" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G52" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="24">
+        <v>41066</v>
+      </c>
+      <c r="G53" s="24">
+        <v>2200000</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C58" s="32"/>
       <c r="H58" s="1" t="s">
@@ -1984,12 +1999,23 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="H59:J59"/>
     <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H57:J57"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
